--- a/images/20200315/op-tb.xlsx
+++ b/images/20200315/op-tb.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="平台建设思路" sheetId="1" r:id="rId1"/>
+    <sheet name="重复造轮子" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>开源</t>
     <rPh sb="0" eb="1">
@@ -190,6 +191,273 @@
     <t>体验(10%)</t>
     <rPh sb="0" eb="1">
       <t>ti'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全</t>
+    <rPh sb="0" eb="1">
+      <t>an'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家</t>
+    <rPh sb="0" eb="1">
+      <t>guo'jia</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队</t>
+    <rPh sb="0" eb="1">
+      <t>tuan'dui</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人</t>
+    <rPh sb="0" eb="1">
+      <t>ge'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会资源使用效率</t>
+    <rPh sb="0" eb="1">
+      <t>she'hui</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi'yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xiao'lv</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治独立性</t>
+    <rPh sb="0" eb="1">
+      <t>zheng'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>du'li'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战略领域布局</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'lue'gui'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ling'yu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu'ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济安全性</t>
+    <rPh sb="0" eb="1">
+      <t>jing'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an'quan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>晋升加薪</t>
+    <rPh sb="0" eb="1">
+      <t>jin'sheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jia'xin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术成长</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chegn'zhang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位安全</t>
+    <rPh sb="0" eb="1">
+      <t>gang'wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预防技术限制</t>
+    <rPh sb="0" eb="1">
+      <t>yu'fang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xian'zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品竞争力(内部赛马)</t>
+    <rPh sb="0" eb="1">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nei'bu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sai'ma</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追求功能体验</t>
+    <rPh sb="0" eb="1">
+      <t>zhui'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>go'neg</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti'yan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务多元化(利润)</t>
+    <rPh sb="0" eb="1">
+      <t>ye'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>duo'yuan'hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li'run</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复造轮子是否合理，分几个维度: 
+1、以个人牟利为出发点的轮子，绝对不正确（资本家视角、但没啥毛病）
+2、商务角度看，具备成本、安全考虑的轮子可以重复造
+3、技术角度难有结论，因为技术的产生环境有差异，评价容易陷入事后诸葛亮</t>
+    <rPh sb="0" eb="1">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zao'lun'zi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi'fou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>he'li</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ji'ge</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>wei'du</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>zi'ben'jia</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>shi'jiao</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>mei'sha'mao'bing</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>cheng'be</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>jiao'du</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>you</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>jie'lun</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>yin'wei</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>de</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>chan'sheng</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>huan'jing</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>you</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>cha'yi</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ping'jia</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>rong'yi</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>xian'ru</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>shi'hou'zhu'ge'linag</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,7 +469,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,6 +491,49 @@
       <sz val="9"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -271,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -283,12 +594,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -568,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,12 +909,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
@@ -751,4 +1071,130 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/images/20200315/op-tb.xlsx
+++ b/images/20200315/op-tb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="平台建设思路" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>开源</t>
-    <rPh sb="0" eb="1">
-      <t>kai'yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>自建</t>
     <rPh sb="0" eb="1">
@@ -44,36 +37,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>采购PaaS/SaaS</t>
-    <rPh sb="0" eb="1">
-      <t>cai'gou</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子项评分标准</t>
-    <rPh sb="0" eb="1">
-      <t>zi'xiang</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ping'fen</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>biao'zhun</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>综合评价</t>
     <rPh sb="2" eb="3">
       <t>ping'jia</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能(30%)</t>
-    <rPh sb="0" eb="1">
-      <t>go'engn</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -143,54 +109,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>API集成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI集成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全可控</t>
-    <rPh sb="0" eb="1">
-      <t>an'quan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ke'kong</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力+资源</t>
-    <rPh sb="0" eb="1">
-      <t>ren'li</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zi'yuan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>终态质量</t>
     <rPh sb="0" eb="1">
       <t>zhong'tai</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>zhi'liag</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据(30%)</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ju</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>体验(10%)</t>
-    <rPh sb="0" eb="1">
-      <t>ti'yan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -458,6 +382,134 @@
     </rPh>
     <rPh sb="108" eb="109">
       <t>shi'hou'zhu'ge'linag</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外采</t>
+    <rPh sb="0" eb="1">
+      <t>wai'cai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分标准</t>
+    <rPh sb="0" eb="1">
+      <t>ping'fen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>biao'zhun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力投入</t>
+    <rPh sb="0" eb="1">
+      <t>ren'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全(30%)</t>
+    <rPh sb="0" eb="1">
+      <t>an'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据安全</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术安全</t>
+    <rPh sb="0" eb="1">
+      <t>ji'shu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>an'quan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能(40%)</t>
+    <rPh sb="0" eb="1">
+      <t>go'engn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助-比例</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bi'li</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助-开源</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai'yuan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助-外采</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wai'cai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助-自建</t>
+    <rPh sb="0" eb="1">
+      <t>fu'zhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源+二开</t>
+    <rPh sb="0" eb="1">
+      <t>kai'yuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>er'kai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统集成</t>
+    <rPh sb="0" eb="1">
+      <t>xi'tong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务费用</t>
+    <rPh sb="0" eb="1">
+      <t>fu'wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei'yong</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -466,10 +518,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -537,8 +590,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -548,12 +614,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,22 +642,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -607,8 +659,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -886,127 +947,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K8"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
-      <c r="K4" s="6">
-        <f>0.3*AVERAGE(C4:F4)+0.2*AVERAGE(G4:H4)+0.2*AVERAGE(I4)+0.3*AVERAGE(J4)</f>
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16">
+        <f>L8</f>
+        <v>1.4500000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1017,14 +1079,17 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="6">
-        <f>0.3*AVERAGE(C5:F5)+0.2*AVERAGE(G5:H5)+0.2*AVERAGE(I5)+0.3*AVERAGE(J5)</f>
-        <v>0.84999999999999987</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <f>L9</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1036,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1045,28 +1110,215 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="6">
-        <f>0.3*AVERAGE(C6:F6)+0.2*AVERAGE(G6:H6)+0.2*AVERAGE(I6)+0.3*AVERAGE(J6)</f>
-        <v>1.175</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="16">
+        <f>L10</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="13">
+        <f>40%/5</f>
+        <v>0.08</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" ref="D7:G7" si="0">40%/5</f>
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="H7" s="13">
+        <f>30%/2</f>
+        <v>0.15</v>
+      </c>
+      <c r="I7" s="13">
+        <f>30%/2</f>
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="13">
+        <f>30%/2</f>
+        <v>0.15</v>
+      </c>
+      <c r="K7" s="13">
+        <f>30%/2</f>
+        <v>0.15</v>
+      </c>
+      <c r="L7" s="13">
+        <f>SUM(C7:K7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="15">
+        <f>C4*C7</f>
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="15">
+        <f>D4*D7</f>
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="15">
+        <f>E4*E7</f>
+        <v>0.08</v>
+      </c>
+      <c r="F8" s="15">
+        <f>F4*F7</f>
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="15">
+        <f>G4*G7</f>
+        <v>0.08</v>
+      </c>
+      <c r="H8" s="15">
+        <f>H4*H7</f>
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="15">
+        <f>I4*I7</f>
+        <v>0.3</v>
+      </c>
+      <c r="J8" s="15">
+        <f>J4*J7</f>
+        <v>0.3</v>
+      </c>
+      <c r="K8" s="15">
+        <f>K4*K7</f>
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" ref="L8:L10" si="1">SUM(C8:K8)</f>
+        <v>1.4500000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="15">
+        <f>C5*C7</f>
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="15">
+        <f>D5*D7</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <f>E5*E7</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <f>F5*F7</f>
+        <v>0.16</v>
+      </c>
+      <c r="G9" s="15">
+        <f>G5*G7</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <f>H5*H7</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <f>I5*I7</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <f>J5*J7</f>
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="15">
+        <f>K5*K7</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="15">
+        <f>C6*C7</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <f>D6*D7</f>
+        <v>0.16</v>
+      </c>
+      <c r="E10" s="15">
+        <f>E6*E7</f>
+        <v>0.16</v>
+      </c>
+      <c r="F10" s="15">
+        <f>F6*F7</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <f>G6*G7</f>
+        <v>0.16</v>
+      </c>
+      <c r="H10" s="15">
+        <f>H6*H7</f>
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="15">
+        <f>I6*I7</f>
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="15">
+        <f>J6*J7</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <f>K6*K7</f>
+        <v>0.15</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C2:F2"/>
+  <mergeCells count="3">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1077,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,102 +1343,102 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
